--- a/工资表.xlsx
+++ b/工资表.xlsx
@@ -1,302 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>工  资  表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发放单位：          </t>
-  </si>
-  <si>
-    <t>所属月份：</t>
-  </si>
-  <si>
-    <t>2024.4</t>
-  </si>
-  <si>
-    <t>发放日期：</t>
-  </si>
-  <si>
-    <t>金额单位： 元</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>姓  名</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>职  位</t>
-  </si>
-  <si>
-    <t>实出勤天数</t>
-  </si>
-  <si>
-    <t>基本工资</t>
-  </si>
-  <si>
-    <t>奖  金</t>
-  </si>
-  <si>
-    <t>应扣款项</t>
-  </si>
-  <si>
-    <t>实发金额</t>
-  </si>
-  <si>
-    <t>签  字</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>甲</t>
-  </si>
-  <si>
-    <t>nianping.xia@insolu.cn</t>
-  </si>
-  <si>
-    <t>总经理</t>
-  </si>
-  <si>
-    <t>乙</t>
-  </si>
-  <si>
-    <t>xnp2011@qq.com</t>
-  </si>
-  <si>
-    <t>总监</t>
-  </si>
-  <si>
-    <t>丙</t>
-  </si>
-  <si>
-    <t>合        计</t>
-  </si>
-  <si>
-    <t>主管领导：</t>
-  </si>
-  <si>
-    <t>制表人：</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="思源黑体 Normal"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b val="1"/>
       <color indexed="8"/>
+      <sz val="48"/>
+    </font>
+    <font>
       <name val="思源黑体 Normal"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <color indexed="8"/>
       <sz val="12"/>
+    </font>
+    <font>
       <name val="思源黑体 Normal"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -488,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -609,214 +506,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -871,11 +830,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1135,256 +1157,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="10.375"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="20" min="1" max="1"/>
+    <col width="24.875" customWidth="1" style="20" min="3" max="3"/>
+    <col width="12.25" customWidth="1" style="20" min="5" max="5"/>
+    <col width="12.125" customWidth="1" style="20" min="6" max="6"/>
+    <col width="10.375" customWidth="1" style="20" min="7" max="7"/>
+    <col width="10.625" customWidth="1" style="20" min="8" max="8"/>
+    <col width="11.75" customWidth="1" style="20" min="9" max="9"/>
+    <col width="11.625" customWidth="1" style="20" min="10" max="10"/>
+    <col width="14.375" customWidth="1" style="20" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+    <row r="1" ht="61" customHeight="1" s="20">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>工  资  表</t>
+        </is>
+      </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="30" customHeight="1" s="20">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">发放单位：          </t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="n"/>
+      <c r="C2" s="21" t="n"/>
+      <c r="D2" s="21" t="n"/>
+      <c r="E2" s="22" t="n"/>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>所属月份：</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2024.4</t>
+        </is>
+      </c>
+      <c r="H2" s="22" t="n"/>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>发放日期：</t>
+        </is>
+      </c>
+      <c r="J2" s="14" t="n"/>
+      <c r="K2" s="15" t="inlineStr">
+        <is>
+          <t>金额单位： 元</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" s="20">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>姓  名</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>职  位</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>实出勤天数</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>基本工资</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>奖  金</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>应扣款项</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>实发金额</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>签  字</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26.25" customHeight="1" s="20">
+      <c r="A4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="26.25" customHeight="1" spans="1:11">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>甲</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>nianping.xia@insolu.cn</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>总经理</t>
+        </is>
+      </c>
+      <c r="E4" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="25" t="n">
         <v>10000</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="24" t="n">
         <v>5000</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="25" t="n">
         <v>-200</v>
       </c>
       <c r="I4" s="16">
         <f>SUM(F4,G4,H4)</f>
-        <v>14800</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="17"/>
+        <v/>
+      </c>
+      <c r="J4" s="24" t="n"/>
+      <c r="K4" s="17" t="n"/>
     </row>
-    <row r="5" ht="26.25" customHeight="1" spans="1:11">
-      <c r="A5" s="7">
+    <row r="5" ht="26.25" customHeight="1" s="20">
+      <c r="A5" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>乙</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>xnp2011@qq.com</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>总监</t>
+        </is>
+      </c>
+      <c r="E5" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="E5" s="9">
-        <v>22</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="F5" s="25" t="n">
         <v>10000</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="24" t="n">
         <v>5000</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="25" t="n">
         <v>-200</v>
       </c>
       <c r="I5" s="16">
         <f>SUM(F5,G5,H5)</f>
-        <v>14800</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="17"/>
+        <v/>
+      </c>
+      <c r="J5" s="24" t="n"/>
+      <c r="K5" s="17" t="n"/>
     </row>
-    <row r="6" ht="26.25" customHeight="1" spans="1:11">
-      <c r="A6" s="7">
+    <row r="6" ht="26.25" customHeight="1" s="20">
+      <c r="A6" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>丙</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>nianping.xia@insolu.cn</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>总监</t>
+        </is>
+      </c>
+      <c r="E6" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="9">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="F6" s="25" t="n">
         <v>10000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="24" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="25" t="n">
         <v>-200</v>
       </c>
       <c r="I6" s="16">
         <f>SUM(F6,G6,H6)</f>
-        <v>14800</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="17"/>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="n"/>
+      <c r="K6" s="17" t="n"/>
     </row>
-    <row r="7" ht="26.25" customHeight="1" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="13">
+    <row r="7" ht="26.25" customHeight="1" s="20">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>合        计</t>
+        </is>
+      </c>
+      <c r="B7" s="22" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="26">
         <f>SUM(E4:E6)</f>
-        <v>66</v>
-      </c>
-      <c r="F7" s="13">
+        <v/>
+      </c>
+      <c r="F7" s="26">
         <f>SUM(F4:F6)</f>
-        <v>30000</v>
-      </c>
-      <c r="G7" s="13">
+        <v/>
+      </c>
+      <c r="G7" s="26">
         <f>SUM(G4:G6)</f>
-        <v>15000</v>
-      </c>
-      <c r="H7" s="13">
+        <v/>
+      </c>
+      <c r="H7" s="26">
         <f>SUM(H4:H6)</f>
-        <v>-600</v>
+        <v/>
       </c>
       <c r="I7" s="16">
         <f>SUM(F7,G7,H7)</f>
-        <v>44400</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="18"/>
+        <v/>
+      </c>
+      <c r="J7" s="26" t="n"/>
+      <c r="K7" s="27" t="n"/>
     </row>
-    <row r="8" ht="26.25" customHeight="1" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="19"/>
+    <row r="8" ht="26.25" customHeight="1" s="20">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>主管领导：</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="16" t="n"/>
+      <c r="J8" s="19" t="inlineStr">
+        <is>
+          <t>制表人：</t>
+        </is>
+      </c>
+      <c r="K8" s="22" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="nianping.xia@insolu.cn"/>
-    <hyperlink ref="C5" r:id="rId2" display="xnp2011@qq.com"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="xnp2011@qq.com" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="nianping.xia@insolu.cn" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>